--- a/model/Outputs/8. Fixed RE/With PV/Output Files/60/Output_6_27.xlsx
+++ b/model/Outputs/8. Fixed RE/With PV/Output Files/60/Output_6_27.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>80663.73099500735</v>
+        <v>16052082.46800645</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>80663.73099500735</v>
+        <v>16052082.46800645</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>65614.34050177835</v>
+        <v>3940022.790763975</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>65614.34050177835</v>
+        <v>3940022.790763975</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1647583070.161899</v>
+        <v>62581087.82270408</v>
       </c>
     </row>
   </sheetData>
@@ -758,10 +758,10 @@
         <v>339.6362423378769</v>
       </c>
       <c r="G3" t="n">
-        <v>321.0633076155676</v>
+        <v>322.5970075731406</v>
       </c>
       <c r="H3" t="n">
-        <v>301.8178796392513</v>
+        <v>300.2841796816783</v>
       </c>
       <c r="I3" t="n">
         <v>108.929687778141</v>
@@ -919,7 +919,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H5" t="n">
-        <v>347.8590406130752</v>
+        <v>346.470696320097</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -970,7 +970,7 @@
         <v>592.2818334606677</v>
       </c>
       <c r="Y5" t="n">
-        <v>509.9290883898282</v>
+        <v>511.3174326828064</v>
       </c>
     </row>
     <row r="6">
@@ -995,13 +995,13 @@
         <v>339.6362423378769</v>
       </c>
       <c r="G6" t="n">
-        <v>321.0633076155676</v>
+        <v>322.5970075731406</v>
       </c>
       <c r="H6" t="n">
         <v>301.8178796392513</v>
       </c>
       <c r="I6" t="n">
-        <v>108.929687778141</v>
+        <v>107.3959878205679</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H8" t="n">
-        <v>346.470696320097</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>361.0088210686545</v>
+        <v>359.6204767756762</v>
       </c>
       <c r="T8" t="n">
         <v>560.964918411981</v>
@@ -1393,7 +1393,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H11" t="n">
-        <v>347.8590406130752</v>
+        <v>346.470696320097</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>560.964918411981</v>
       </c>
       <c r="U11" t="n">
-        <v>647.3630829088994</v>
+        <v>648.751427201877</v>
       </c>
       <c r="V11" t="n">
         <v>629.8510241668239</v>
@@ -1551,49 +1551,49 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
         <v>165.2127885434264</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0</v>
-      </c>
-      <c r="V13" t="n">
-        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1663,13 +1663,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>359.6204767756762</v>
+        <v>361.0088210686545</v>
       </c>
       <c r="T14" t="n">
         <v>560.964918411981</v>
       </c>
       <c r="U14" t="n">
-        <v>648.751427201877</v>
+        <v>647.3630829088994</v>
       </c>
       <c r="V14" t="n">
         <v>629.8510241668239</v>
@@ -1739,10 +1739,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>352.1613821980396</v>
+        <v>350.6276822404662</v>
       </c>
       <c r="S15" t="n">
-        <v>406.6592151013782</v>
+        <v>408.192915058951</v>
       </c>
       <c r="T15" t="n">
         <v>392.6911708778912</v>
@@ -1788,10 +1788,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="I16" t="n">
-        <v>97.40414414470841</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>67.808644398718</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>481.9993129555745</v>
       </c>
       <c r="C17" t="n">
-        <v>448.0862339500159</v>
+        <v>449.4745782429939</v>
       </c>
       <c r="D17" t="n">
         <v>410.3391557398498</v>
@@ -1906,7 +1906,7 @@
         <v>560.964918411981</v>
       </c>
       <c r="U17" t="n">
-        <v>648.751427201877</v>
+        <v>647.3630829088994</v>
       </c>
       <c r="V17" t="n">
         <v>629.8510241668239</v>
@@ -1976,10 +1976,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>350.6276822404662</v>
+        <v>352.1613821980396</v>
       </c>
       <c r="S18" t="n">
-        <v>408.192915058951</v>
+        <v>406.6592151013782</v>
       </c>
       <c r="T18" t="n">
         <v>392.6911708778912</v>
@@ -2025,10 +2025,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>165.2127885434264</v>
+        <v>67.808644398718</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>97.40414414470841</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G20" t="n">
-        <v>397.8840054528454</v>
+        <v>396.4956611598672</v>
       </c>
       <c r="H20" t="n">
         <v>347.8590406130752</v>
@@ -2137,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>359.6204767756762</v>
+        <v>361.0088210686545</v>
       </c>
       <c r="T20" t="n">
         <v>560.964918411981</v>
@@ -2213,10 +2213,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>350.6276822404662</v>
+        <v>352.1613821980396</v>
       </c>
       <c r="S21" t="n">
-        <v>408.192915058951</v>
+        <v>406.6592151013782</v>
       </c>
       <c r="T21" t="n">
         <v>392.6911708778912</v>
@@ -2262,7 +2262,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2298,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2502,7 +2502,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>97.40414414470841</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>67.808644398718</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>480.6109686625962</v>
+        <v>481.9993129555745</v>
       </c>
       <c r="C26" t="n">
         <v>449.4745782429939</v>
@@ -2623,7 +2623,7 @@
         <v>629.8510241668239</v>
       </c>
       <c r="W26" t="n">
-        <v>638.3734759809475</v>
+        <v>636.9851316879694</v>
       </c>
       <c r="X26" t="n">
         <v>592.2818334606677</v>
@@ -2687,10 +2687,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>352.1613821980396</v>
+        <v>350.6276822404662</v>
       </c>
       <c r="S27" t="n">
-        <v>406.6592151013782</v>
+        <v>408.192915058951</v>
       </c>
       <c r="T27" t="n">
         <v>392.6911708778912</v>
@@ -2721,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>14.39810218700126</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2775,13 +2775,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>150.8146863564251</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>14.39810218700126</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3012,13 +3012,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>150.8146863564251</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3085,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>359.6204767756762</v>
+        <v>361.0088210686545</v>
       </c>
       <c r="T32" t="n">
         <v>560.964918411981</v>
@@ -3100,7 +3100,7 @@
         <v>638.3734759809475</v>
       </c>
       <c r="X32" t="n">
-        <v>592.2818334606677</v>
+        <v>590.8934891676897</v>
       </c>
       <c r="Y32" t="n">
         <v>511.3174326828064</v>
@@ -3161,10 +3161,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>350.6276822404662</v>
+        <v>352.1613821980396</v>
       </c>
       <c r="S33" t="n">
-        <v>408.192915058951</v>
+        <v>406.6592151013782</v>
       </c>
       <c r="T33" t="n">
         <v>392.6911708778912</v>
@@ -3213,7 +3213,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>97.40414414470841</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>165.2127885434264</v>
+        <v>67.808644398718</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>481.9993129555745</v>
+        <v>480.6109686625962</v>
       </c>
       <c r="C35" t="n">
         <v>449.4745782429939</v>
@@ -3289,7 +3289,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H35" t="n">
-        <v>346.470696320097</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3450,7 +3450,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>97.40414414470841</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3489,10 +3489,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>67.808644398718</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3520,7 +3520,7 @@
         <v>404.3632896068686</v>
       </c>
       <c r="F38" t="n">
-        <v>404.8896287080119</v>
+        <v>403.5012844150336</v>
       </c>
       <c r="G38" t="n">
         <v>397.8840054528454</v>
@@ -3559,7 +3559,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>359.6204767756762</v>
+        <v>361.0088210686545</v>
       </c>
       <c r="T38" t="n">
         <v>560.964918411981</v>
@@ -3687,7 +3687,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>97.40414414470841</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3723,16 +3723,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>150.8146863564251</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>14.39810218700126</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>67.808644398718</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3872,10 +3872,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>350.6276822404662</v>
+        <v>352.1613821980396</v>
       </c>
       <c r="S42" t="n">
-        <v>408.192915058951</v>
+        <v>406.6592151013782</v>
       </c>
       <c r="T42" t="n">
         <v>392.6911708778912</v>
@@ -3921,7 +3921,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>14.39810218700126</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3960,13 +3960,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>150.8146863564251</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3991,7 +3991,7 @@
         <v>410.3391557398498</v>
       </c>
       <c r="E44" t="n">
-        <v>402.9749453138904</v>
+        <v>404.3632896068686</v>
       </c>
       <c r="F44" t="n">
         <v>404.8896287080119</v>
@@ -4042,7 +4042,7 @@
         <v>648.751427201877</v>
       </c>
       <c r="V44" t="n">
-        <v>629.8510241668239</v>
+        <v>628.4626798738458</v>
       </c>
       <c r="W44" t="n">
         <v>638.3734759809475</v>
@@ -4112,13 +4112,13 @@
         <v>352.1613821980396</v>
       </c>
       <c r="S45" t="n">
-        <v>406.6592151013782</v>
+        <v>408.192915058951</v>
       </c>
       <c r="T45" t="n">
         <v>392.6911708778912</v>
       </c>
       <c r="U45" t="n">
-        <v>400.0036144771679</v>
+        <v>398.469914519595</v>
       </c>
       <c r="V45" t="n">
         <v>414.5106671915202</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>67.808644398718</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4161,7 +4161,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>97.40414414470841</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4339,13 +4339,13 @@
         <v>675.3654425154225</v>
       </c>
       <c r="K2" t="n">
-        <v>2124.71495243113</v>
+        <v>1677.76186642996</v>
       </c>
       <c r="L2" t="n">
-        <v>3681.051378010443</v>
+        <v>2595.354589746543</v>
       </c>
       <c r="M2" t="n">
-        <v>4163.230577523946</v>
+        <v>3077.533789260046</v>
       </c>
       <c r="N2" t="n">
         <v>4728.273641396618</v>
@@ -4406,7 +4406,7 @@
         <v>880.1629040736968</v>
       </c>
       <c r="G3" t="n">
-        <v>555.8565327448407</v>
+        <v>554.3073408685043</v>
       </c>
       <c r="H3" t="n">
         <v>250.9899876546879</v>
@@ -4549,22 +4549,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C5" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D5" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E5" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F5" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G5" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233303</v>
       </c>
       <c r="H5" t="n">
         <v>140.96</v>
@@ -4573,25 +4573,25 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J5" t="n">
-        <v>1101.367131735718</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K5" t="n">
-        <v>1936.671378010443</v>
+        <v>2124.71495243113</v>
       </c>
       <c r="L5" t="n">
-        <v>3681.051378010443</v>
+        <v>3071.357825473565</v>
       </c>
       <c r="M5" t="n">
-        <v>4163.230577523946</v>
+        <v>3553.537024987068</v>
       </c>
       <c r="N5" t="n">
-        <v>4728.273641396618</v>
+        <v>4118.58008885974</v>
       </c>
       <c r="O5" t="n">
-        <v>5638.428524337362</v>
+        <v>5028.734971800483</v>
       </c>
       <c r="P5" t="n">
-        <v>6474.295852434775</v>
+        <v>5864.602299897897</v>
       </c>
       <c r="Q5" t="n">
         <v>6931.116362236997</v>
@@ -4618,7 +4618,7 @@
         <v>3582.109595665705</v>
       </c>
       <c r="Y5" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="6">
@@ -4643,10 +4643,10 @@
         <v>880.1629040736968</v>
       </c>
       <c r="G6" t="n">
-        <v>555.8565327448407</v>
+        <v>554.3073408685043</v>
       </c>
       <c r="H6" t="n">
-        <v>250.9899876546879</v>
+        <v>249.4407957783515</v>
       </c>
       <c r="I6" t="n">
         <v>140.96</v>
@@ -4728,13 +4728,13 @@
         <v>140.96</v>
       </c>
       <c r="I7" t="n">
-        <v>140.96</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="J7" t="n">
-        <v>290.4466099967136</v>
+        <v>440.0999956178874</v>
       </c>
       <c r="K7" t="n">
-        <v>307.8416045893196</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="L7" t="n">
         <v>457.4949902104935</v>
@@ -4786,22 +4786,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2578.759347546128</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C8" t="n">
-        <v>2124.744622048154</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D8" t="n">
-        <v>1710.260626351336</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E8" t="n">
-        <v>1301.812859071671</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F8" t="n">
-        <v>892.8334361342853</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G8" t="n">
-        <v>490.9304003233303</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H8" t="n">
         <v>140.96</v>
@@ -4813,7 +4813,7 @@
         <v>675.3654425154225</v>
       </c>
       <c r="K8" t="n">
-        <v>1936.671378010443</v>
+        <v>2124.71495243113</v>
       </c>
       <c r="L8" t="n">
         <v>3681.051378010443</v>
@@ -4837,25 +4837,25 @@
         <v>7048</v>
       </c>
       <c r="S8" t="n">
-        <v>6683.344625183177</v>
+        <v>6684.746993155883</v>
       </c>
       <c r="T8" t="n">
-        <v>6116.713394464005</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U8" t="n">
-        <v>5461.408922542916</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V8" t="n">
-        <v>4825.195766818852</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W8" t="n">
-        <v>4180.374073908803</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X8" t="n">
-        <v>3582.109595665705</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y8" t="n">
-        <v>3065.627340430547</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="9">
@@ -4944,37 +4944,37 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>140.96</v>
+        <v>252.3693006790323</v>
       </c>
       <c r="C10" t="n">
-        <v>140.96</v>
+        <v>252.3693006790323</v>
       </c>
       <c r="D10" t="n">
-        <v>140.96</v>
+        <v>252.3693006790323</v>
       </c>
       <c r="E10" t="n">
-        <v>140.96</v>
+        <v>252.3693006790323</v>
       </c>
       <c r="F10" t="n">
-        <v>140.96</v>
+        <v>252.3693006790323</v>
       </c>
       <c r="G10" t="n">
-        <v>140.96</v>
+        <v>252.3693006790323</v>
       </c>
       <c r="H10" t="n">
-        <v>140.96</v>
+        <v>252.3693006790323</v>
       </c>
       <c r="I10" t="n">
-        <v>140.96</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="J10" t="n">
-        <v>290.4466099967136</v>
+        <v>440.0999956178874</v>
       </c>
       <c r="K10" t="n">
-        <v>307.8416045893196</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="L10" t="n">
-        <v>307.8416045893196</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="M10" t="n">
         <v>457.4949902104935</v>
@@ -5013,7 +5013,7 @@
         <v>140.96</v>
       </c>
       <c r="Y10" t="n">
-        <v>140.96</v>
+        <v>252.3693006790323</v>
       </c>
     </row>
     <row r="11">
@@ -5023,22 +5023,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C11" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D11" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E11" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F11" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G11" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233303</v>
       </c>
       <c r="H11" t="n">
         <v>140.96</v>
@@ -5080,19 +5080,19 @@
         <v>6116.713394464005</v>
       </c>
       <c r="U11" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V11" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W11" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X11" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y11" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="12">
@@ -5181,22 +5181,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="C13" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="D13" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="E13" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="F13" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="G13" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="H13" t="n">
         <v>140.96</v>
@@ -5241,16 +5241,16 @@
         <v>307.8416045893196</v>
       </c>
       <c r="V13" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="W13" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="X13" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Y13" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="14">
@@ -5284,10 +5284,10 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J14" t="n">
-        <v>1101.367131735718</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K14" t="n">
-        <v>2550.716641651425</v>
+        <v>2124.71495243113</v>
       </c>
       <c r="L14" t="n">
         <v>3681.051378010443</v>
@@ -5311,10 +5311,10 @@
         <v>7048</v>
       </c>
       <c r="S14" t="n">
-        <v>6684.746993155883</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T14" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U14" t="n">
         <v>5462.811290515621</v>
@@ -5387,7 +5387,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R15" t="n">
-        <v>5569.989306372909</v>
+        <v>5571.538498249245</v>
       </c>
       <c r="S15" t="n">
         <v>5159.222422432123</v>
@@ -5418,25 +5418,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="C16" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="D16" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="E16" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="F16" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="G16" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="H16" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="I16" t="n">
         <v>140.96</v>
@@ -5475,19 +5475,19 @@
         <v>307.8416045893196</v>
       </c>
       <c r="U16" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="V16" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="W16" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="X16" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Y16" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893196</v>
       </c>
     </row>
     <row r="17">
@@ -5497,7 +5497,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2578.759347546128</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C17" t="n">
         <v>2126.146990020859</v>
@@ -5527,16 +5527,16 @@
         <v>1415.008586083262</v>
       </c>
       <c r="L17" t="n">
-        <v>2631.383042915614</v>
+        <v>2819.17922466306</v>
       </c>
       <c r="M17" t="n">
-        <v>4163.230577523946</v>
+        <v>3301.358424176563</v>
       </c>
       <c r="N17" t="n">
-        <v>4728.273641396618</v>
+        <v>3866.401488049235</v>
       </c>
       <c r="O17" t="n">
-        <v>5638.428524337362</v>
+        <v>4776.556370989979</v>
       </c>
       <c r="P17" t="n">
         <v>6474.295852434775</v>
@@ -5554,19 +5554,19 @@
         <v>6116.713394464005</v>
       </c>
       <c r="U17" t="n">
-        <v>5461.408922542916</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V17" t="n">
-        <v>4825.195766818852</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W17" t="n">
-        <v>4180.374073908803</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X17" t="n">
-        <v>3582.109595665705</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y17" t="n">
-        <v>3065.627340430547</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="18">
@@ -5624,7 +5624,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R18" t="n">
-        <v>5571.538498249245</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S18" t="n">
         <v>5159.222422432123</v>
@@ -5673,7 +5673,7 @@
         <v>307.8416045893196</v>
       </c>
       <c r="H19" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="I19" t="n">
         <v>140.96</v>
@@ -5734,19 +5734,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C20" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D20" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E20" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F20" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G20" t="n">
         <v>492.3327682960356</v>
@@ -5767,13 +5767,13 @@
         <v>2332.601309399844</v>
       </c>
       <c r="M20" t="n">
-        <v>2814.780508913348</v>
+        <v>3864.448844008177</v>
       </c>
       <c r="N20" t="n">
-        <v>4465.52036104992</v>
+        <v>4728.273641396618</v>
       </c>
       <c r="O20" t="n">
-        <v>5375.675243990664</v>
+        <v>5638.428524337362</v>
       </c>
       <c r="P20" t="n">
         <v>6474.295852434775</v>
@@ -5785,25 +5785,25 @@
         <v>7048</v>
       </c>
       <c r="S20" t="n">
-        <v>6684.746993155883</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T20" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U20" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V20" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W20" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X20" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y20" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="21">
@@ -5861,7 +5861,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R21" t="n">
-        <v>5571.538498249245</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S21" t="n">
         <v>5159.222422432123</v>
@@ -5892,22 +5892,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="C22" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="D22" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="E22" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="F22" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="G22" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="H22" t="n">
         <v>140.96</v>
@@ -5946,22 +5946,22 @@
         <v>307.8416045893196</v>
       </c>
       <c r="T22" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="U22" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="V22" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="W22" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="X22" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Y22" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
     </row>
     <row r="23">
@@ -5992,31 +5992,31 @@
         <v>140.96</v>
       </c>
       <c r="I23" t="n">
-        <v>140.96</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J23" t="n">
-        <v>599.7771454756521</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K23" t="n">
-        <v>1339.420289043491</v>
+        <v>2124.71495243113</v>
       </c>
       <c r="L23" t="n">
-        <v>2257.013012360075</v>
+        <v>3681.051378010443</v>
       </c>
       <c r="M23" t="n">
-        <v>3194.417427023049</v>
+        <v>4163.230577523946</v>
       </c>
       <c r="N23" t="n">
-        <v>4845.157279159621</v>
+        <v>4728.273641396618</v>
       </c>
       <c r="O23" t="n">
-        <v>5755.312162100365</v>
+        <v>5638.428524337362</v>
       </c>
       <c r="P23" t="n">
-        <v>6591.179490197778</v>
+        <v>6474.295852434775</v>
       </c>
       <c r="Q23" t="n">
-        <v>7048</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R23" t="n">
         <v>7048</v>
@@ -6129,25 +6129,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="C25" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="D25" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="E25" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="F25" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="G25" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="H25" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="I25" t="n">
         <v>140.96</v>
@@ -6192,13 +6192,13 @@
         <v>307.8416045893196</v>
       </c>
       <c r="W25" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="X25" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="Y25" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="26">
@@ -6271,13 +6271,13 @@
         <v>4825.195766818852</v>
       </c>
       <c r="W26" t="n">
-        <v>4180.374073908803</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X26" t="n">
-        <v>3582.109595665705</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y26" t="n">
-        <v>3065.627340430547</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="27">
@@ -6335,7 +6335,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R27" t="n">
-        <v>5569.989306372909</v>
+        <v>5571.538498249245</v>
       </c>
       <c r="S27" t="n">
         <v>5159.222422432123</v>
@@ -6366,7 +6366,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>155.5035375626275</v>
+        <v>140.96</v>
       </c>
       <c r="C28" t="n">
         <v>140.96</v>
@@ -6423,19 +6423,19 @@
         <v>307.8416045893196</v>
       </c>
       <c r="U28" t="n">
-        <v>155.5035375626275</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="V28" t="n">
-        <v>155.5035375626275</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="W28" t="n">
-        <v>155.5035375626275</v>
+        <v>140.96</v>
       </c>
       <c r="X28" t="n">
-        <v>155.5035375626275</v>
+        <v>140.96</v>
       </c>
       <c r="Y28" t="n">
-        <v>155.5035375626275</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="29">
@@ -6472,7 +6472,7 @@
         <v>675.3654425154225</v>
       </c>
       <c r="K29" t="n">
-        <v>1936.671378010443</v>
+        <v>2124.71495243113</v>
       </c>
       <c r="L29" t="n">
         <v>3681.051378010443</v>
@@ -6603,19 +6603,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5035375626275</v>
+        <v>140.96</v>
       </c>
       <c r="C31" t="n">
-        <v>155.5035375626275</v>
+        <v>140.96</v>
       </c>
       <c r="D31" t="n">
-        <v>155.5035375626275</v>
+        <v>140.96</v>
       </c>
       <c r="E31" t="n">
-        <v>155.5035375626275</v>
+        <v>140.96</v>
       </c>
       <c r="F31" t="n">
-        <v>155.5035375626275</v>
+        <v>140.96</v>
       </c>
       <c r="G31" t="n">
         <v>140.96</v>
@@ -6660,19 +6660,19 @@
         <v>307.8416045893196</v>
       </c>
       <c r="U31" t="n">
-        <v>155.5035375626275</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="V31" t="n">
-        <v>155.5035375626275</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="W31" t="n">
-        <v>155.5035375626275</v>
+        <v>140.96</v>
       </c>
       <c r="X31" t="n">
-        <v>155.5035375626275</v>
+        <v>140.96</v>
       </c>
       <c r="Y31" t="n">
-        <v>155.5035375626275</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="32">
@@ -6709,13 +6709,13 @@
         <v>675.3654425154225</v>
       </c>
       <c r="K32" t="n">
-        <v>1415.008586083262</v>
+        <v>1936.671378010443</v>
       </c>
       <c r="L32" t="n">
-        <v>2595.354589746543</v>
+        <v>3681.051378010443</v>
       </c>
       <c r="M32" t="n">
-        <v>3077.533789260046</v>
+        <v>4163.230577523946</v>
       </c>
       <c r="N32" t="n">
         <v>4728.273641396618</v>
@@ -6733,19 +6733,19 @@
         <v>7048</v>
       </c>
       <c r="S32" t="n">
-        <v>6684.746993155883</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T32" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U32" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V32" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W32" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X32" t="n">
         <v>3583.51196363841</v>
@@ -6809,7 +6809,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R33" t="n">
-        <v>5571.538498249245</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S33" t="n">
         <v>5159.222422432123</v>
@@ -6840,25 +6840,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="C34" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="D34" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="E34" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="F34" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="G34" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="H34" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="I34" t="n">
         <v>140.96</v>
@@ -6900,16 +6900,16 @@
         <v>307.8416045893196</v>
       </c>
       <c r="V34" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="W34" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="X34" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="Y34" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
     </row>
     <row r="35">
@@ -6919,22 +6919,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2578.759347546128</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C35" t="n">
-        <v>2124.744622048154</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D35" t="n">
-        <v>1710.260626351336</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E35" t="n">
-        <v>1301.812859071671</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F35" t="n">
-        <v>892.8334361342853</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G35" t="n">
-        <v>490.9304003233303</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H35" t="n">
         <v>140.96</v>
@@ -6949,16 +6949,16 @@
         <v>1415.008586083262</v>
       </c>
       <c r="L35" t="n">
-        <v>2595.354589746543</v>
+        <v>2819.17922466306</v>
       </c>
       <c r="M35" t="n">
-        <v>3077.533789260046</v>
+        <v>3301.358424176563</v>
       </c>
       <c r="N35" t="n">
-        <v>4728.273641396618</v>
+        <v>3866.401488049235</v>
       </c>
       <c r="O35" t="n">
-        <v>5638.428524337362</v>
+        <v>4776.556370989979</v>
       </c>
       <c r="P35" t="n">
         <v>6474.295852434775</v>
@@ -7077,25 +7077,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="C37" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="D37" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="E37" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="F37" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="G37" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="H37" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="I37" t="n">
         <v>140.96</v>
@@ -7137,16 +7137,16 @@
         <v>307.8416045893196</v>
       </c>
       <c r="V37" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="W37" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="X37" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="Y37" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
     </row>
     <row r="38">
@@ -7156,16 +7156,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C38" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D38" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E38" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F38" t="n">
         <v>894.2358041069906</v>
@@ -7183,19 +7183,19 @@
         <v>675.3654425154225</v>
       </c>
       <c r="K38" t="n">
-        <v>1415.008586083262</v>
+        <v>1901.586501346477</v>
       </c>
       <c r="L38" t="n">
-        <v>2595.354589746543</v>
+        <v>2819.17922466306</v>
       </c>
       <c r="M38" t="n">
-        <v>3077.533789260046</v>
+        <v>3301.358424176563</v>
       </c>
       <c r="N38" t="n">
-        <v>4728.273641396618</v>
+        <v>3866.401488049235</v>
       </c>
       <c r="O38" t="n">
-        <v>5638.428524337362</v>
+        <v>4776.556370989979</v>
       </c>
       <c r="P38" t="n">
         <v>6474.295852434775</v>
@@ -7207,25 +7207,25 @@
         <v>7048</v>
       </c>
       <c r="S38" t="n">
-        <v>6684.746993155883</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T38" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U38" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V38" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W38" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X38" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y38" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="39">
@@ -7314,25 +7314,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="C40" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="D40" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="E40" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="F40" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="G40" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="H40" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="I40" t="n">
         <v>140.96</v>
@@ -7371,19 +7371,19 @@
         <v>307.8416045893196</v>
       </c>
       <c r="U40" t="n">
-        <v>155.5035375626275</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="V40" t="n">
-        <v>155.5035375626275</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="W40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="X40" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="Y40" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
     </row>
     <row r="41">
@@ -7420,7 +7420,7 @@
         <v>675.3654425154225</v>
       </c>
       <c r="K41" t="n">
-        <v>1936.671378010443</v>
+        <v>2124.71495243113</v>
       </c>
       <c r="L41" t="n">
         <v>3681.051378010443</v>
@@ -7520,7 +7520,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R42" t="n">
-        <v>5571.538498249245</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S42" t="n">
         <v>5159.222422432123</v>
@@ -7551,22 +7551,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>140.96</v>
+        <v>155.5035375626275</v>
       </c>
       <c r="C43" t="n">
-        <v>140.96</v>
+        <v>155.5035375626275</v>
       </c>
       <c r="D43" t="n">
-        <v>140.96</v>
+        <v>155.5035375626275</v>
       </c>
       <c r="E43" t="n">
-        <v>140.96</v>
+        <v>155.5035375626275</v>
       </c>
       <c r="F43" t="n">
-        <v>140.96</v>
+        <v>155.5035375626275</v>
       </c>
       <c r="G43" t="n">
-        <v>140.96</v>
+        <v>155.5035375626275</v>
       </c>
       <c r="H43" t="n">
         <v>140.96</v>
@@ -7608,19 +7608,19 @@
         <v>307.8416045893196</v>
       </c>
       <c r="U43" t="n">
-        <v>307.8416045893196</v>
+        <v>155.5035375626275</v>
       </c>
       <c r="V43" t="n">
-        <v>307.8416045893196</v>
+        <v>155.5035375626275</v>
       </c>
       <c r="W43" t="n">
-        <v>140.96</v>
+        <v>155.5035375626275</v>
       </c>
       <c r="X43" t="n">
-        <v>140.96</v>
+        <v>155.5035375626275</v>
       </c>
       <c r="Y43" t="n">
-        <v>140.96</v>
+        <v>155.5035375626275</v>
       </c>
     </row>
     <row r="44">
@@ -7630,13 +7630,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2578.759347546128</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C44" t="n">
-        <v>2124.744622048154</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D44" t="n">
-        <v>1710.260626351336</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E44" t="n">
         <v>1303.215227044376</v>
@@ -7690,16 +7690,16 @@
         <v>5461.408922542916</v>
       </c>
       <c r="V44" t="n">
-        <v>4825.195766818852</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W44" t="n">
-        <v>4180.374073908803</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X44" t="n">
-        <v>3582.109595665705</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y44" t="n">
-        <v>3065.627340430547</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="45">
@@ -7760,10 +7760,10 @@
         <v>5569.989306372909</v>
       </c>
       <c r="S45" t="n">
-        <v>5159.222422432123</v>
+        <v>5157.673230555786</v>
       </c>
       <c r="T45" t="n">
-        <v>4762.564674070616</v>
+        <v>4761.01548219428</v>
       </c>
       <c r="U45" t="n">
         <v>4358.520619043174</v>
@@ -7788,25 +7788,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="C46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="D46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="E46" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="F46" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="G46" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="H46" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="I46" t="n">
         <v>140.96</v>
@@ -7851,13 +7851,13 @@
         <v>307.8416045893196</v>
       </c>
       <c r="W46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="X46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Y46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
     </row>
   </sheetData>
@@ -7987,16 +7987,16 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>716.8751175230994</v>
+        <v>265.4073538855536</v>
       </c>
       <c r="L2" t="n">
-        <v>645.1956588512421</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1096.663422488788</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -8221,13 +8221,13 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J5" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>96.62737647160202</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L5" t="n">
-        <v>835.1386633165826</v>
+        <v>29.34358558166878</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8242,7 +8242,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R5" t="n">
         <v>294.54111633436</v>
@@ -8461,10 +8461,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>526.9321130577587</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L8" t="n">
-        <v>835.1386633165826</v>
+        <v>645.1956588512421</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8932,13 +8932,13 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J14" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>716.8751175230994</v>
       </c>
       <c r="L14" t="n">
-        <v>214.8909222650855</v>
+        <v>645.1956588512421</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -9175,10 +9175,10 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>301.799730824009</v>
+        <v>491.4928437002175</v>
       </c>
       <c r="M17" t="n">
-        <v>1060.271045550332</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -9415,16 +9415,16 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1060.271045550332</v>
       </c>
       <c r="N20" t="n">
-        <v>1096.663422488788</v>
+        <v>301.7997308240087</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>265.4073538855528</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -9640,22 +9640,22 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>44.29520053209296</v>
+        <v>120.6470157237802</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>645.1956588512421</v>
       </c>
       <c r="M23" t="n">
-        <v>459.8234496459305</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1096.663422488788</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -9667,7 +9667,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>176.4768357656695</v>
+        <v>294.54111633436</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -10120,10 +10120,10 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>526.9321130577587</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L29" t="n">
-        <v>835.1386633165826</v>
+        <v>645.1956588512421</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10357,16 +10357,16 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>526.9321130577587</v>
       </c>
       <c r="L32" t="n">
-        <v>265.4073538855534</v>
+        <v>835.1386633165826</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1096.663422488788</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -10597,19 +10597,19 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>265.4073538855534</v>
+        <v>491.4928437002175</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1096.663422488788</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10831,22 +10831,22 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>491.4928437002177</v>
       </c>
       <c r="L38" t="n">
-        <v>265.4073538855534</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1096.663422488788</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -11068,10 +11068,10 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>526.9321130577587</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L41" t="n">
-        <v>835.1386633165826</v>
+        <v>645.1956588512421</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -23281,7 +23281,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23320,7 +23320,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>1.388344292977649</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23439,7 +23439,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H13" t="n">
-        <v>40.13443591884794</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I13" t="n">
         <v>97.40414414470841</v>
@@ -23481,7 +23481,7 @@
         <v>150.8146863564251</v>
       </c>
       <c r="V13" t="n">
-        <v>199.1703102162162</v>
+        <v>33.9575216727898</v>
       </c>
       <c r="W13" t="n">
         <v>226.3728098387097</v>
@@ -23551,13 +23551,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>1.388344292978275</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1.388344292977649</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23627,10 +23627,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>1.53369995757339</v>
       </c>
       <c r="S15" t="n">
-        <v>1.533699957572765</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -23676,10 +23676,10 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H16" t="n">
-        <v>205.3472244622743</v>
+        <v>40.13443591884794</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>97.40414414470841</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>198.7676812603561</v>
       </c>
       <c r="U16" t="n">
-        <v>83.00604195770714</v>
+        <v>150.8146863564251</v>
       </c>
       <c r="V16" t="n">
         <v>199.1703102162162</v>
@@ -23740,7 +23740,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1.38834429297799</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23794,7 +23794,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1.388344292977649</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23864,10 +23864,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>1.53369995757339</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>1.533699957572765</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23913,10 +23913,10 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H19" t="n">
-        <v>40.13443591884794</v>
+        <v>137.5385800635563</v>
       </c>
       <c r="I19" t="n">
-        <v>97.40414414470841</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23989,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24025,7 +24025,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>1.388344292978275</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24101,10 +24101,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>1.53369995757339</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>1.533699957572765</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24150,7 +24150,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H22" t="n">
-        <v>205.3472244622743</v>
+        <v>40.13443591884794</v>
       </c>
       <c r="I22" t="n">
         <v>97.40414414470841</v>
@@ -24186,7 +24186,7 @@
         <v>316.45975839138</v>
       </c>
       <c r="T22" t="n">
-        <v>33.55489271692969</v>
+        <v>198.7676812603561</v>
       </c>
       <c r="U22" t="n">
         <v>150.8146863564251</v>
@@ -24390,7 +24390,7 @@
         <v>205.3472244622743</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>97.40414414470841</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W25" t="n">
-        <v>158.5641654399917</v>
+        <v>61.16002129528329</v>
       </c>
       <c r="X25" t="n">
         <v>247.4436454301076</v>
@@ -24448,7 +24448,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.388344292978275</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>1.38834429297799</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24575,10 +24575,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>1.53369995757339</v>
       </c>
       <c r="S27" t="n">
-        <v>1.533699957572765</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -24609,7 +24609,7 @@
         <v>287.1138003370787</v>
       </c>
       <c r="C28" t="n">
-        <v>258.3271444610434</v>
+        <v>272.7252466480447</v>
       </c>
       <c r="D28" t="n">
         <v>285.5362180555555</v>
@@ -24663,13 +24663,13 @@
         <v>198.7676812603561</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>150.8146863564251</v>
       </c>
       <c r="V28" t="n">
         <v>199.1703102162162</v>
       </c>
       <c r="W28" t="n">
-        <v>226.3728098387097</v>
+        <v>61.16002129528329</v>
       </c>
       <c r="X28" t="n">
         <v>247.4436454301076</v>
@@ -24858,7 +24858,7 @@
         <v>274.3828559677419</v>
       </c>
       <c r="G31" t="n">
-        <v>228.0111804905943</v>
+        <v>242.4092826775956</v>
       </c>
       <c r="H31" t="n">
         <v>205.3472244622743</v>
@@ -24900,13 +24900,13 @@
         <v>198.7676812603561</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>150.8146863564251</v>
       </c>
       <c r="V31" t="n">
         <v>199.1703102162162</v>
       </c>
       <c r="W31" t="n">
-        <v>226.3728098387097</v>
+        <v>61.16002129528329</v>
       </c>
       <c r="X31" t="n">
         <v>247.4436454301076</v>
@@ -24973,7 +24973,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>1.388344292978275</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -24988,7 +24988,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>1.38834429297799</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25049,10 +25049,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>1.53369995757339</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>1.533699957572765</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -25101,7 +25101,7 @@
         <v>205.3472244622743</v>
       </c>
       <c r="I34" t="n">
-        <v>97.40414414470841</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>150.8146863564251</v>
       </c>
       <c r="V34" t="n">
-        <v>33.9575216727898</v>
+        <v>131.3616658174982</v>
       </c>
       <c r="W34" t="n">
         <v>226.3728098387097</v>
@@ -25159,7 +25159,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25177,7 +25177,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25338,7 +25338,7 @@
         <v>205.3472244622743</v>
       </c>
       <c r="I37" t="n">
-        <v>97.40414414470841</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>150.8146863564251</v>
       </c>
       <c r="V37" t="n">
-        <v>33.9575216727898</v>
+        <v>199.1703102162162</v>
       </c>
       <c r="W37" t="n">
-        <v>226.3728098387097</v>
+        <v>158.5641654399917</v>
       </c>
       <c r="X37" t="n">
         <v>247.4436454301076</v>
@@ -25408,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -25447,7 +25447,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>1.388344292978275</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25575,7 +25575,7 @@
         <v>205.3472244622743</v>
       </c>
       <c r="I40" t="n">
-        <v>97.40414414470841</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25611,16 +25611,16 @@
         <v>198.7676812603561</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>150.8146863564251</v>
       </c>
       <c r="V40" t="n">
         <v>199.1703102162162</v>
       </c>
       <c r="W40" t="n">
-        <v>211.9747076517084</v>
+        <v>226.3728098387097</v>
       </c>
       <c r="X40" t="n">
-        <v>247.4436454301076</v>
+        <v>179.6350010313895</v>
       </c>
       <c r="Y40" t="n">
         <v>287.4653528494624</v>
@@ -25760,10 +25760,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>1.53369995757339</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>1.533699957572765</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -25809,7 +25809,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H43" t="n">
-        <v>205.3472244622743</v>
+        <v>190.9491222752731</v>
       </c>
       <c r="I43" t="n">
         <v>97.40414414470841</v>
@@ -25848,13 +25848,13 @@
         <v>198.7676812603561</v>
       </c>
       <c r="U43" t="n">
-        <v>150.8146863564251</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>199.1703102162162</v>
       </c>
       <c r="W43" t="n">
-        <v>61.16002129528329</v>
+        <v>226.3728098387097</v>
       </c>
       <c r="X43" t="n">
         <v>247.4436454301076</v>
@@ -25879,7 +25879,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25930,7 +25930,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>1.388344292978104</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26000,13 +26000,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>1.533699957572765</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>1.533699957572878</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26037,7 +26037,7 @@
         <v>285.5362180555555</v>
       </c>
       <c r="E46" t="n">
-        <v>213.1722604382385</v>
+        <v>280.9809048369565</v>
       </c>
       <c r="F46" t="n">
         <v>274.3828559677419</v>
@@ -26049,7 +26049,7 @@
         <v>205.3472244622743</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>97.40414414470841</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W46" t="n">
-        <v>226.3728098387097</v>
+        <v>61.16002129528329</v>
       </c>
       <c r="X46" t="n">
         <v>247.4436454301076</v>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>16812.76883547375</v>
+        <v>1391548.529551329</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>33359.18696190735</v>
+        <v>2745378.847908867</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>49905.60508834093</v>
+        <v>4099209.166266407</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>68738.20278394976</v>
+        <v>5311855.334621574</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>87570.80047955857</v>
+        <v>6524501.502976741</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>106403.3981751674</v>
+        <v>7737147.671331899</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>125235.9958707762</v>
+        <v>8949793.839687053</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>144068.593566385</v>
+        <v>10162440.00804221</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>162901.1912619938</v>
+        <v>11375086.17639736</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>181733.7889576026</v>
+        <v>12587732.34475252</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>200566.3866532114</v>
+        <v>13800378.51310768</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>219398.9843488202</v>
+        <v>15013024.68146284</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>238231.5820444292</v>
+        <v>16225670.84981802</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>257064.1797400383</v>
+        <v>17438317.0181732</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>275896.7774356474</v>
+        <v>18650963.18652837</v>
       </c>
     </row>
   </sheetData>
@@ -26322,46 +26322,46 @@
         <v>850079.5022245016</v>
       </c>
       <c r="C2" t="n">
+        <v>850079.5022245015</v>
+      </c>
+      <c r="D2" t="n">
         <v>850079.5022245016</v>
       </c>
-      <c r="D2" t="n">
-        <v>850079.5022245015</v>
-      </c>
       <c r="E2" t="n">
-        <v>761428.9894323121</v>
+        <v>761428.9894323123</v>
       </c>
       <c r="F2" t="n">
-        <v>761428.9894323122</v>
+        <v>761428.9894323124</v>
       </c>
       <c r="G2" t="n">
-        <v>761428.9894323122</v>
+        <v>761428.9894323123</v>
       </c>
       <c r="H2" t="n">
         <v>761428.9894323125</v>
       </c>
       <c r="I2" t="n">
-        <v>761428.9894323123</v>
+        <v>761428.9894323124</v>
       </c>
       <c r="J2" t="n">
+        <v>761428.9894323124</v>
+      </c>
+      <c r="K2" t="n">
+        <v>761428.9894323124</v>
+      </c>
+      <c r="L2" t="n">
+        <v>761428.9894323124</v>
+      </c>
+      <c r="M2" t="n">
         <v>761428.9894323121</v>
       </c>
-      <c r="K2" t="n">
-        <v>761428.9894323123</v>
-      </c>
-      <c r="L2" t="n">
-        <v>761428.9894323125</v>
-      </c>
-      <c r="M2" t="n">
-        <v>761428.9894323124</v>
-      </c>
       <c r="N2" t="n">
-        <v>761428.9894323128</v>
+        <v>761428.9894323127</v>
       </c>
       <c r="O2" t="n">
-        <v>761428.9894323128</v>
+        <v>761428.9894323127</v>
       </c>
       <c r="P2" t="n">
-        <v>761428.9894323125</v>
+        <v>761428.9894323127</v>
       </c>
     </row>
     <row r="3">
@@ -26438,10 +26438,10 @@
         <v>38928.93672769592</v>
       </c>
       <c r="G4" t="n">
+        <v>38928.93672769591</v>
+      </c>
+      <c r="H4" t="n">
         <v>38928.93672769592</v>
-      </c>
-      <c r="H4" t="n">
-        <v>38928.93672769591</v>
       </c>
       <c r="I4" t="n">
         <v>38928.93672769592</v>
@@ -26456,10 +26456,10 @@
         <v>38928.93672769592</v>
       </c>
       <c r="M4" t="n">
-        <v>38928.93672769592</v>
+        <v>38928.93672769591</v>
       </c>
       <c r="N4" t="n">
-        <v>38928.93672769592</v>
+        <v>38928.93672769591</v>
       </c>
       <c r="O4" t="n">
         <v>38928.93672769592</v>
@@ -26530,46 +26530,46 @@
         <v>-1481447.775726326</v>
       </c>
       <c r="C6" t="n">
-        <v>563553.1753281546</v>
+        <v>563553.1753281545</v>
       </c>
       <c r="D6" t="n">
-        <v>563855.5359980875</v>
+        <v>563855.5359980876</v>
       </c>
       <c r="E6" t="n">
-        <v>583520.6527046162</v>
+        <v>583520.6527046164</v>
       </c>
       <c r="F6" t="n">
-        <v>583520.6527046163</v>
+        <v>583520.6527046165</v>
       </c>
       <c r="G6" t="n">
-        <v>583520.6527046163</v>
+        <v>583520.6527046164</v>
       </c>
       <c r="H6" t="n">
         <v>583520.6527046167</v>
       </c>
       <c r="I6" t="n">
-        <v>583520.6527046164</v>
+        <v>583520.6527046165</v>
       </c>
       <c r="J6" t="n">
-        <v>-36703.34729538381</v>
+        <v>-36703.34729538346</v>
       </c>
       <c r="K6" t="n">
-        <v>583520.6527046164</v>
+        <v>583520.6527046165</v>
       </c>
       <c r="L6" t="n">
-        <v>583520.6527046167</v>
+        <v>583520.6527046165</v>
       </c>
       <c r="M6" t="n">
-        <v>583520.6527046165</v>
+        <v>583520.6527046162</v>
       </c>
       <c r="N6" t="n">
-        <v>583520.6527046169</v>
+        <v>583520.6527046168</v>
       </c>
       <c r="O6" t="n">
-        <v>583520.6527046169</v>
+        <v>583520.6527046168</v>
       </c>
       <c r="P6" t="n">
-        <v>583520.6527046167</v>
+        <v>583520.6527046168</v>
       </c>
     </row>
   </sheetData>
@@ -27602,10 +27602,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.533699957572992</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.533699957573049</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27763,7 +27763,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27814,7 +27814,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.388344292978161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27839,13 +27839,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.533699957572992</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1.533699957573035</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27924,7 +27924,7 @@
         <v>205.3472244622743</v>
       </c>
       <c r="I7" t="n">
-        <v>97.40414414470841</v>
+        <v>248.5691801256921</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27933,7 +27933,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>183.02095922073</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M7" t="n">
         <v>107.6476277959926</v>
@@ -28000,7 +28000,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -28033,7 +28033,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -28161,7 +28161,7 @@
         <v>205.3472244622743</v>
       </c>
       <c r="I10" t="n">
-        <v>97.40414414470841</v>
+        <v>136.0345329751544</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28173,7 +28173,7 @@
         <v>31.85592323974635</v>
       </c>
       <c r="M10" t="n">
-        <v>258.8126637769763</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N10" t="n">
         <v>168.0209277307011</v>
@@ -28209,7 +28209,7 @@
         <v>247.4436454301076</v>
       </c>
       <c r="Y10" t="n">
-        <v>287.4653528494624</v>
+        <v>400</v>
       </c>
     </row>
     <row r="11">
@@ -34831,16 +34831,16 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K2" t="n">
-        <v>1463.98940395526</v>
+        <v>1012.521640317714</v>
       </c>
       <c r="L2" t="n">
-        <v>1572.05699553466</v>
+        <v>926.8613366834172</v>
       </c>
       <c r="M2" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N2" t="n">
-        <v>570.7505695683558</v>
+        <v>1667.413992057144</v>
       </c>
       <c r="O2" t="n">
         <v>919.3483666068121</v>
@@ -35065,13 +35065,13 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J5" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K5" t="n">
-        <v>843.741662903763</v>
+        <v>1463.98940395526</v>
       </c>
       <c r="L5" t="n">
-        <v>1762</v>
+        <v>956.2049222650858</v>
       </c>
       <c r="M5" t="n">
         <v>487.0496964782857</v>
@@ -35086,7 +35086,7 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q5" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R5" t="n">
         <v>118.0642805686905</v>
@@ -35220,7 +35220,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>151.1650359809837</v>
       </c>
       <c r="J7" t="n">
         <v>150.9965757542561</v>
@@ -35229,7 +35229,7 @@
         <v>17.57070160869296</v>
       </c>
       <c r="L7" t="n">
-        <v>151.1650359809837</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -35305,10 +35305,10 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K8" t="n">
-        <v>1274.04639948992</v>
+        <v>1463.98940395526</v>
       </c>
       <c r="L8" t="n">
-        <v>1762</v>
+        <v>1572.05699553466</v>
       </c>
       <c r="M8" t="n">
         <v>487.0496964782857</v>
@@ -35457,7 +35457,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>38.63038883044603</v>
       </c>
       <c r="J10" t="n">
         <v>150.9965757542561</v>
@@ -35469,7 +35469,7 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>151.1650359809837</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -35505,7 +35505,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>112.5346471505376</v>
       </c>
     </row>
     <row r="11">
@@ -35776,13 +35776,13 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J14" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K14" t="n">
         <v>1463.98940395526</v>
       </c>
       <c r="L14" t="n">
-        <v>1141.752258948503</v>
+        <v>1572.05699553466</v>
       </c>
       <c r="M14" t="n">
         <v>487.0496964782857</v>
@@ -36019,10 +36019,10 @@
         <v>747.114286432161</v>
       </c>
       <c r="L17" t="n">
-        <v>1228.661067507426</v>
+        <v>1418.354180383635</v>
       </c>
       <c r="M17" t="n">
-        <v>1547.320742028618</v>
+        <v>487.0496964782857</v>
       </c>
       <c r="N17" t="n">
         <v>570.7505695683558</v>
@@ -36031,7 +36031,7 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P17" t="n">
-        <v>844.3104324216301</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q17" t="n">
         <v>461.4348583860824</v>
@@ -36259,16 +36259,16 @@
         <v>926.861336683417</v>
       </c>
       <c r="M20" t="n">
-        <v>487.0496964782857</v>
+        <v>1547.320742028618</v>
       </c>
       <c r="N20" t="n">
-        <v>1667.413992057144</v>
+        <v>872.5503003923645</v>
       </c>
       <c r="O20" t="n">
         <v>919.3483666068121</v>
       </c>
       <c r="P20" t="n">
-        <v>1109.717786307183</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q20" t="n">
         <v>461.4348583860824</v>
@@ -36484,22 +36484,22 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>76.35181519168728</v>
       </c>
       <c r="J23" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K23" t="n">
-        <v>747.1142864321608</v>
+        <v>1463.98940395526</v>
       </c>
       <c r="L23" t="n">
-        <v>926.8613366834174</v>
+        <v>1572.05699553466</v>
       </c>
       <c r="M23" t="n">
-        <v>946.8731461242162</v>
+        <v>487.0496964782857</v>
       </c>
       <c r="N23" t="n">
-        <v>1667.413992057144</v>
+        <v>570.7505695683558</v>
       </c>
       <c r="O23" t="n">
         <v>919.3483666068121</v>
@@ -36511,7 +36511,7 @@
         <v>461.4348583860824</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.0642805686905</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36964,10 +36964,10 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K29" t="n">
-        <v>1274.04639948992</v>
+        <v>1463.98940395526</v>
       </c>
       <c r="L29" t="n">
-        <v>1762</v>
+        <v>1572.05699553466</v>
       </c>
       <c r="M29" t="n">
         <v>487.0496964782857</v>
@@ -37201,16 +37201,16 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K32" t="n">
-        <v>747.114286432161</v>
+        <v>1274.04639948992</v>
       </c>
       <c r="L32" t="n">
-        <v>1192.268690568971</v>
+        <v>1762</v>
       </c>
       <c r="M32" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N32" t="n">
-        <v>1667.413992057144</v>
+        <v>570.7505695683558</v>
       </c>
       <c r="O32" t="n">
         <v>919.3483666068121</v>
@@ -37441,19 +37441,19 @@
         <v>747.114286432161</v>
       </c>
       <c r="L35" t="n">
-        <v>1192.268690568971</v>
+        <v>1418.354180383635</v>
       </c>
       <c r="M35" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N35" t="n">
-        <v>1667.413992057144</v>
+        <v>570.7505695683558</v>
       </c>
       <c r="O35" t="n">
         <v>919.3483666068121</v>
       </c>
       <c r="P35" t="n">
-        <v>844.3104324216301</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q35" t="n">
         <v>461.4348583860824</v>
@@ -37675,22 +37675,22 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K38" t="n">
-        <v>747.114286432161</v>
+        <v>1238.607130132378</v>
       </c>
       <c r="L38" t="n">
-        <v>1192.268690568971</v>
+        <v>926.8613366834172</v>
       </c>
       <c r="M38" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N38" t="n">
-        <v>1667.413992057144</v>
+        <v>570.7505695683558</v>
       </c>
       <c r="O38" t="n">
         <v>919.3483666068121</v>
       </c>
       <c r="P38" t="n">
-        <v>844.3104324216301</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q38" t="n">
         <v>461.4348583860824</v>
@@ -37912,10 +37912,10 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K41" t="n">
-        <v>1274.04639948992</v>
+        <v>1463.98940395526</v>
       </c>
       <c r="L41" t="n">
-        <v>1762</v>
+        <v>1572.05699553466</v>
       </c>
       <c r="M41" t="n">
         <v>487.0496964782857</v>
